--- a/inst/extdata/TG.xlsx
+++ b/inst/extdata/TG.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://indiana-my.sharepoint.com/personal/yzh10_iu_edu/Documents/research/nuMoM2b/whole_sequencing/for_use/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://indiana-my.sharepoint.com/personal/yzh10_iu_edu/Documents/research/nuMoM2b/whole_sequencing/mr.carv/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="8_{EB338793-E911-CF44-9B38-94A76EF1FAB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20438298-E2C7-5145-9153-4F51FCC59B93}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="8_{EB338793-E911-CF44-9B38-94A76EF1FAB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BA28DD3-8E2F-D242-8340-75FFC5697A9C}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="2240" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{8CF3AADF-3B51-1B4F-985A-713C56632C1E}"/>
+    <workbookView xWindow="40020" yWindow="4520" windowWidth="27640" windowHeight="16940" activeTab="3" xr2:uid="{8CF3AADF-3B51-1B4F-985A-713C56632C1E}"/>
   </bookViews>
   <sheets>
     <sheet name="indv_effect" sheetId="1" r:id="rId1"/>
-    <sheet name="gene_effect" sheetId="2" r:id="rId2"/>
+    <sheet name="coding" sheetId="2" r:id="rId2"/>
+    <sheet name="noncoding" sheetId="3" r:id="rId3"/>
+    <sheet name="window" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1781" uniqueCount="432">
   <si>
     <t>A</t>
   </si>
@@ -1303,6 +1305,36 @@
   </si>
   <si>
     <t>disruptive_missense</t>
+  </si>
+  <si>
+    <t>promoter_CAGE</t>
+  </si>
+  <si>
+    <t>Start.Loc</t>
+  </si>
+  <si>
+    <t>End.Loc</t>
+  </si>
+  <si>
+    <t>Genes linked to the region</t>
+  </si>
+  <si>
+    <t>Regions (regulatory element in the region)</t>
+  </si>
+  <si>
+    <t>Intron5-Exon5-Intron4-Exon4-Intron3-Exon3-Intron2-Exon2-Intron1 (EH38E1945111 distal enhancer like signature)</t>
+  </si>
+  <si>
+    <t>Exon6-Intron5-Exon5-Intron4-Exon4-Intron3-Exon3 (EH38E1945111 distal enhancer like signature)</t>
+  </si>
+  <si>
+    <t>Exon5-Intron4-Exon4</t>
+  </si>
+  <si>
+    <t>Intron1</t>
+  </si>
+  <si>
+    <t>Intron5-Exon5-Intron4-Exon4-Intron3-Exon3-Intron2-Exon2-Intron1 (EH38E1945111 distal enhancer like signanature)</t>
   </si>
 </sst>
 </file>
@@ -1312,7 +1344,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1366,6 +1398,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1375,7 +1421,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1487,11 +1533,84 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1590,6 +1709,101 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1930,7 +2144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{507F472E-772F-E949-B612-5FED0D7A26C2}">
   <dimension ref="A1:L290"/>
   <sheetViews>
-    <sheetView topLeftCell="A282" workbookViewId="0">
+    <sheetView topLeftCell="A266" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:L290"/>
     </sheetView>
   </sheetViews>
@@ -12814,7 +13028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85D427D3-02D1-0F48-84C3-582D66EA14C9}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -13486,4 +13700,357 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9E0EA6-122E-964C-A263-B5F27C0F4E5C}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="51">
+        <v>11</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>422</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="F2" s="51">
+        <v>23</v>
+      </c>
+      <c r="G2" s="52">
+        <v>5.6680000000000001E-2</v>
+      </c>
+      <c r="H2" s="52">
+        <v>4.8349999999999997E-2</v>
+      </c>
+      <c r="I2" s="52">
+        <v>1.7550000000000001E-4</v>
+      </c>
+      <c r="J2" s="52">
+        <v>5.0849999999999995E-4</v>
+      </c>
+      <c r="K2" s="53">
+        <v>0.53011537962129196</v>
+      </c>
+      <c r="L2" s="53">
+        <v>1.6312889589999999</v>
+      </c>
+      <c r="M2" s="54">
+        <v>0.74520590815252497</v>
+      </c>
+      <c r="N2" s="55">
+        <v>30</v>
+      </c>
+      <c r="O2" s="56">
+        <v>4.32007276887603E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B9701D-BD5D-4240-8004-608280E20059}">
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>423</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>424</v>
+      </c>
+      <c r="D1" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>425</v>
+      </c>
+      <c r="F1" s="59" t="s">
+        <v>426</v>
+      </c>
+      <c r="G1" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="255" x14ac:dyDescent="0.2">
+      <c r="A2" s="62">
+        <v>19</v>
+      </c>
+      <c r="B2" s="62">
+        <v>19269547</v>
+      </c>
+      <c r="C2" s="63">
+        <v>19271546</v>
+      </c>
+      <c r="D2" s="63">
+        <v>293</v>
+      </c>
+      <c r="E2" s="66" t="s">
+        <v>374</v>
+      </c>
+      <c r="F2" s="67" t="s">
+        <v>427</v>
+      </c>
+      <c r="G2" s="70">
+        <v>-4.37015578629149E-3</v>
+      </c>
+      <c r="H2">
+        <v>8.9405849690085398E-3</v>
+      </c>
+      <c r="I2" s="72">
+        <v>0.62498346801365101</v>
+      </c>
+      <c r="J2" s="74">
+        <v>291</v>
+      </c>
+      <c r="K2" s="75">
+        <v>1.44461138550511E-3</v>
+      </c>
+      <c r="L2" s="90" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="222" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="64">
+        <v>19</v>
+      </c>
+      <c r="B3" s="64">
+        <v>19268547</v>
+      </c>
+      <c r="C3" s="65">
+        <v>19270546</v>
+      </c>
+      <c r="D3" s="65">
+        <v>294</v>
+      </c>
+      <c r="E3" s="68" t="s">
+        <v>374</v>
+      </c>
+      <c r="F3" s="69" t="s">
+        <v>428</v>
+      </c>
+      <c r="G3" s="71">
+        <v>9.1001793387880496E-4</v>
+      </c>
+      <c r="H3">
+        <v>7.8175772734223499E-3</v>
+      </c>
+      <c r="I3" s="73">
+        <v>0.90733027011682499</v>
+      </c>
+      <c r="J3" s="76">
+        <v>326</v>
+      </c>
+      <c r="K3" s="77">
+        <v>0.27611733698546398</v>
+      </c>
+      <c r="L3" s="90" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="62">
+        <v>19</v>
+      </c>
+      <c r="B4" s="62">
+        <v>19269704</v>
+      </c>
+      <c r="C4" s="63">
+        <v>19270248</v>
+      </c>
+      <c r="D4" s="62">
+        <v>89</v>
+      </c>
+      <c r="E4" s="66" t="s">
+        <v>374</v>
+      </c>
+      <c r="F4" s="63" t="s">
+        <v>429</v>
+      </c>
+      <c r="G4" s="82">
+        <v>-4.7E-2</v>
+      </c>
+      <c r="H4">
+        <v>1.9538856492853501E-2</v>
+      </c>
+      <c r="I4" s="85">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="J4" s="88">
+        <v>92</v>
+      </c>
+      <c r="K4" s="13">
+        <v>0.25575687972838701</v>
+      </c>
+      <c r="L4" s="90" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="78">
+        <v>8</v>
+      </c>
+      <c r="B5" s="78">
+        <v>20081766</v>
+      </c>
+      <c r="C5" s="79">
+        <v>20082654</v>
+      </c>
+      <c r="D5" s="78">
+        <v>141</v>
+      </c>
+      <c r="E5" s="80" t="s">
+        <v>215</v>
+      </c>
+      <c r="F5" s="79" t="s">
+        <v>430</v>
+      </c>
+      <c r="G5" s="83">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="H5">
+        <v>1.03377285684667E-2</v>
+      </c>
+      <c r="I5" s="86">
+        <v>3.4E-5</v>
+      </c>
+      <c r="J5" s="1">
+        <v>207</v>
+      </c>
+      <c r="K5" s="20">
+        <v>2.5281272820082E-32</v>
+      </c>
+      <c r="L5" s="90" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="107" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="64">
+        <v>19</v>
+      </c>
+      <c r="B6" s="64">
+        <v>19269561</v>
+      </c>
+      <c r="C6" s="65">
+        <v>19271412</v>
+      </c>
+      <c r="D6" s="64">
+        <v>279</v>
+      </c>
+      <c r="E6" s="68" t="s">
+        <v>374</v>
+      </c>
+      <c r="F6" s="81" t="s">
+        <v>431</v>
+      </c>
+      <c r="G6" s="84">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="H6">
+        <v>8.9903415637862302E-3</v>
+      </c>
+      <c r="I6" s="87">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="J6" s="89">
+        <v>269</v>
+      </c>
+      <c r="K6" s="26">
+        <v>1.4520013344925301E-3</v>
+      </c>
+      <c r="L6" s="90" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>